--- a/Grupo_04 2025-04-12  20_52.xlsx
+++ b/Grupo_04 2025-04-12  20_52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEXANDER\Documents\Semillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E81400C-9E65-4784-A674-7ED888801BB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099FD54-8D44-4B32-88A3-53165510B421}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -100,18 +100,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,12 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,346 +374,350 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="12.5703125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
         <v>6</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>4</v>
       </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>6</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>6</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
     </row>
